--- a/tags.xlsx
+++ b/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Desktop\AP_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462C8756-5765-44EC-AA82-EAD3716A09D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95274931-28E0-4E1F-BF47-EC532DCD5179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +367,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -375,56 +376,56 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
+      <c r="B1" s="1">
+        <v>1.9675925925925928E-3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" s="1">
+        <v>1.042824074074074E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" s="1">
+        <v>1.042824074074074E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>1.042824074074074E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B5" s="1">
+        <v>1.042824074074074E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>6</v>
+      <c r="B6" s="1">
+        <v>1.042824074074074E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>7</v>
+      <c r="B7" s="1">
+        <v>1.042824074074074E-2</v>
       </c>
     </row>
   </sheetData>

--- a/tags.xlsx
+++ b/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Desktop\AP_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95274931-28E0-4E1F-BF47-EC532DCD5179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2C9EE3-60DF-4E94-AB13-DE5ECCBDC70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.042824074074074E-2</v>
+        <v>2.1354166666666664E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -401,7 +401,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.042824074074074E-2</v>
+        <v>3.5358796296296298E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -409,7 +409,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1.042824074074074E-2</v>
+        <v>4.5486111111111109E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1.042824074074074E-2</v>
+        <v>6.3136574074074081E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1.042824074074074E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
     </row>
   </sheetData>
